--- a/3_semester/DS-I/project/files/ds-slovnik.xlsx
+++ b/3_semester/DS-I/project/files/ds-slovnik.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michalrucka/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michal\Desktop\VSB\3_semester\DS-I\project\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FF2829-4872-C346-9CDE-CB75DDE783F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{0B05F47A-4407-094A-BA4F-A62D02D9D3F9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="104">
   <si>
     <t>Currencies</t>
   </si>
@@ -83,9 +82,6 @@
     <t>Název preferované státní měny</t>
   </si>
   <si>
-    <t>User</t>
-  </si>
-  <si>
     <t>User_ID</t>
   </si>
   <si>
@@ -176,9 +172,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Cryptocurrency_ID</t>
-  </si>
-  <si>
     <t>TIMESTAMP</t>
   </si>
   <si>
@@ -201,12 +194,165 @@
   </si>
   <si>
     <t>ID kryptoměny transakce</t>
+  </si>
+  <si>
+    <t>Název kryptoměny</t>
+  </si>
+  <si>
+    <t>ID kryptoměny</t>
+  </si>
+  <si>
+    <t>Portfolios</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies</t>
+  </si>
+  <si>
+    <t>Vexels</t>
+  </si>
+  <si>
+    <t>Trader_ID</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>ID uživatele vedeného jako vexlák</t>
+  </si>
+  <si>
+    <t>P2P_Offers</t>
+  </si>
+  <si>
+    <t>Offer_ID</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Negotiable</t>
+  </si>
+  <si>
+    <t>Traders_ID</t>
+  </si>
+  <si>
+    <t>Cyptocurrencies_ID</t>
+  </si>
+  <si>
+    <t>Cryptocurrencies_ID</t>
+  </si>
+  <si>
+    <t>BOOL</t>
+  </si>
+  <si>
+    <t>Cizí (Cryptocurrencies)</t>
+  </si>
+  <si>
+    <t>Cizí (Vexels)</t>
+  </si>
+  <si>
+    <t>Město, ve kterém proběhne obchod</t>
+  </si>
+  <si>
+    <t>Město,ve kterém plánuje užvatel provádět obchody</t>
+  </si>
+  <si>
+    <t>Status, ve kterém se nabídka aktuálně nachází</t>
+  </si>
+  <si>
+    <t>Možnost jednat o ceně</t>
+  </si>
+  <si>
+    <t>ID kryptoměny nabídky</t>
+  </si>
+  <si>
+    <t>Objem nabízené/požadované nabídky</t>
+  </si>
+  <si>
+    <t>Částka nabízené/požadované nabídky</t>
+  </si>
+  <si>
+    <t>ID tvůrce nabídky</t>
+  </si>
+  <si>
+    <t>P2P_Transaction_ID</t>
+  </si>
+  <si>
+    <t>P2P_Transactions</t>
+  </si>
+  <si>
+    <t>Cizí (Offers)</t>
+  </si>
+  <si>
+    <t>Datum uzavření nabídky</t>
+  </si>
+  <si>
+    <t>ID nabídky</t>
+  </si>
+  <si>
+    <t>Admins</t>
+  </si>
+  <si>
+    <t>Admin_ID</t>
+  </si>
+  <si>
+    <t>First_name</t>
+  </si>
+  <si>
+    <t>Last_name</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>Postal_code</t>
+  </si>
+  <si>
+    <t>Jméno admina</t>
+  </si>
+  <si>
+    <t>Příjmení admina</t>
+  </si>
+  <si>
+    <t>Stát jeho pobytu</t>
+  </si>
+  <si>
+    <t>Město jeho pobytu</t>
+  </si>
+  <si>
+    <t>PSČ</t>
+  </si>
+  <si>
+    <t>ID uživatele vedeného jako admin</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Adresa jeho pobytu</t>
+  </si>
+  <si>
+    <t>Nabyva hodnot od 0 do 100</t>
+  </si>
+  <si>
+    <t>Nabývá hodnot od 1 do 3. 1=Nabídka je k dispozici, 2=Nabídka je rezervovaná, 3=Nabídka je uzavřená</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -231,7 +377,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -239,16 +385,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -559,505 +783,1043 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3977C06A-6439-854B-AD40-176E2EC8E0EE}">
-  <dimension ref="B2:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" customWidth="1"/>
+    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="3.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="43.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3">
+        <v>64</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="3">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="3">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="4"/>
+      <c r="H38" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C43" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5">
+      <c r="D43" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B7" t="s">
+      <c r="E43" s="5"/>
+      <c r="F43" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="4"/>
+      <c r="H43" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="3">
+        <v>50</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
+      <c r="C49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C52" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E52" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F52" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G52" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H52" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D10">
+      <c r="D56" s="3">
+        <v>50</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" s="3">
+        <v>2</v>
+      </c>
+      <c r="H57" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="C66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="4"/>
+      <c r="E66" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="3">
+        <v>30</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="3">
+        <v>30</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="F73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>64</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="D74" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B16" s="1" t="s">
+      <c r="F74" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" s="3">
+        <v>30</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="4"/>
+      <c r="E77" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C80" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" t="s">
-        <v>18</v>
-      </c>
-      <c r="H25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="H27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32">
-        <v>20</v>
+      <c r="C81" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>